--- a/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
+++ b/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>绩效考核汇总</t>
   </si>
   <si>
-    <t>2023年 07月 01日至2023年 10月 31日</t>
+    <t>2023年 10月 01日至2023年 10月 31日</t>
   </si>
   <si>
     <t>编辑</t>
@@ -62,13 +62,16 @@
     <t>黄礼闯</t>
   </si>
   <si>
-    <t>N2023062002</t>
+    <t>夏国连生信支持</t>
   </si>
   <si>
     <t>固定业务</t>
   </si>
   <si>
-    <t>化合物靶点功能通路分析</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>筛选丹参酮治疗脓毒症的关键差异表达基因及相关信号通路</t>
   </si>
   <si>
     <t>完成</t>
@@ -77,76 +80,634 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>N2023070301</t>
-  </si>
-  <si>
-    <t>分子对接分析</t>
-  </si>
-  <si>
-    <t>BI2023072101</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>结合 scRNA-seq 和 bulk RNA-seq 探究昼夜节律基因对于 ccRCC 的预后评估价值</t>
-  </si>
-  <si>
-    <t>IN2023072803</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>筛出（瘢痕增生）能够与 TCF-AS1 结合又能与 TCF4 结合的 RNA 结合蛋白</t>
-  </si>
-  <si>
-    <t>沈顺订单：结合网络药理、16s rRNA、代谢组分析中药复方对糖尿病肾病的作用和靶点（分两部分）</t>
-  </si>
-  <si>
-    <t>完成第一部分</t>
-  </si>
-  <si>
-    <t>沈顺订单</t>
-  </si>
-  <si>
-    <t>完成第二部分</t>
-  </si>
-  <si>
-    <t>白晓霞订单</t>
-  </si>
-  <si>
-    <t>妊娠期肝内胆汁淤积症筛选基因突变</t>
-  </si>
-  <si>
-    <t>蛋白质信息获取</t>
-  </si>
-  <si>
-    <t>IN2023072801</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>筛选肌少症（Sarcopenia）、结直肠癌（colorectal cancer）、化疗（Chemotherapy）共同的通路</t>
-  </si>
-  <si>
-    <t>夏国连生信支持</t>
-  </si>
-  <si>
-    <t>筛选丹参酮治疗脓毒症的关键差异表达基因及相关信号通路</t>
-  </si>
-  <si>
-    <t>曹卓空间转录组</t>
-  </si>
-  <si>
-    <t>癌细胞鉴定、亚群鉴定、marker分析、细胞通讯等。</t>
-  </si>
-  <si>
-    <t>BI2023080108</t>
-  </si>
-  <si>
-    <t>慢性肾病和肾癌的关联分析（题目待定）</t>
+    <t>汇总表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编辑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务完成数量</t>
+    </r>
+  </si>
+  <si>
+    <t>总分值/分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效系数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绩效系数计算公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总绩效系数</t>
+    </r>
+  </si>
+  <si>
+    <t>绩效奖励系数</t>
+  </si>
+  <si>
+    <t>组员1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本业务</t>
+    </r>
+  </si>
+  <si>
+    <t>0.25*4+X=1.1</t>
+  </si>
+  <si>
+    <t>其他业务</t>
+  </si>
+  <si>
+    <t>a+b+c=d</t>
+  </si>
+  <si>
+    <t>填表说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务类型：编辑部：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文章，标书，翻译，问题单修改，返修（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审）【（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审）不要忘记】，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>proof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，中文文章，中文修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方案人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础方案，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临床方案，标书方案，中文方案，问题单方案修改，其他方案修改；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临床数据，中文数据，标书数据，数据修改，科研报告；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生信人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：数据挖掘，生信文章；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投稿人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：英文投稿，中文投稿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表格字体统一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号，宋体，不要有填充色，表格边框不要加粗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横杠保持一致，统一用中文格式下：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shift+”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后删去多的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汇总表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里业务类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只分2个大类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，基本业务和额外业务；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务完成数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里面详细</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小的业务类型和篇数</t>
+    </r>
   </si>
   <si>
     <t>软性考核汇总</t>
@@ -171,9 +732,6 @@
   </si>
   <si>
     <t>差</t>
-  </si>
-  <si>
-    <t>组员1</t>
   </si>
   <si>
     <t>组员2</t>
@@ -209,11 +767,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,23 +810,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -279,6 +858,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -287,16 +932,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +970,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,73 +995,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,175 +1054,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,18 +1326,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +1365,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,17 +1400,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -776,161 +1413,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,7 +1636,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,14 +1676,46 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="17" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1093,65 +1783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1838325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="上箭头 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10753725" y="3857625"/>
-          <a:ext cx="323850" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,10 +2072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1457,6 +2088,7 @@
     <col min="7" max="8" width="29.375" customWidth="1"/>
     <col min="9" max="9" width="33.5" customWidth="1"/>
     <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="11" max="11" width="11.125"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:11">
@@ -1466,7 +2098,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="25"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -1481,7 +2113,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -1502,16 +2134,16 @@
       <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="22" t="s">
         <v>9</v>
       </c>
@@ -1527,12 +2159,12 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="36" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="22"/>
@@ -1552,400 +2184,377 @@
       <c r="D7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="32"/>
+      <c r="G7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="39"/>
       <c r="I7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="J7" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="23">
-        <v>2</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="E28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="31" t="s">
+      <c r="F28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="23">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="G28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="H28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="31" t="s">
+      <c r="I28" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="23">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="31" t="s">
+      <c r="J28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="23" t="s">
+      <c r="K28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="s">
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="23" t="s">
+      <c r="E29" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23">
-        <v>2</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="31" t="s">
+      <c r="J29" s="26"/>
+      <c r="K29" s="52"/>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30" s="26"/>
+      <c r="E30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="23">
-        <v>3</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="23">
-        <v>4</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="J30" s="26"/>
+      <c r="K30" s="52"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="30" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="31" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:7">
+      <c r="A37" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="23">
-        <v>1</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:7">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="31" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="23">
-        <v>2</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="23">
-        <v>3</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="10:10">
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="10:10">
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="10:10">
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="19"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="24"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1966,7 +2575,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2010,7 +2619,7 @@
     </row>
     <row r="3" ht="23.25" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2033,11 +2642,11 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2048,33 +2657,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" ht="28.5" customHeight="1" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2099,16 +2708,16 @@
         <v>0.01</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2136,16 +2745,16 @@
         <v>0.01</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2173,16 +2782,16 @@
         <v>0.01</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2210,22 +2819,22 @@
         <v>0.01</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:19">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -2249,21 +2858,21 @@
         <v>0.01</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2288,21 +2897,21 @@
         <v>0.05</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2327,16 +2936,16 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
+++ b/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>绩效考核汇总</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>英文</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>黄礼闯</t>
@@ -767,9 +782,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -850,6 +865,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -858,6 +888,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -866,6 +904,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -874,8 +942,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,107 +1003,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1066,175 +1081,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,11 +1341,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,54 +1402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1406,164 +1410,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1720,8 +1735,8 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 14 2 2" xfId="1"/>
-    <cellStyle name="常规 2 2 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2 2" xfId="1"/>
+    <cellStyle name="常规 14 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2072,10 +2087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2154,7 +2169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -2170,33 +2185,49 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" s="23">
         <v>0.25</v>
@@ -2425,47 +2456,47 @@
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J28" s="50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="52"/>
@@ -2473,25 +2504,25 @@
     <row r="30" spans="4:11">
       <c r="D30" s="26"/>
       <c r="E30" s="44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="52"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -2500,7 +2531,7 @@
     </row>
     <row r="37" ht="15.75" spans="1:7">
       <c r="A37" s="29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -2511,7 +2542,7 @@
     </row>
     <row r="38" ht="15.75" spans="1:7">
       <c r="A38" s="29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -2522,7 +2553,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -2575,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2619,7 +2650,7 @@
     </row>
     <row r="3" ht="23.25" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2642,11 +2673,11 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2657,33 +2688,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="28.5" customHeight="1" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2708,16 +2739,16 @@
         <v>0.01</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2745,16 +2776,16 @@
         <v>0.01</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2782,16 +2813,16 @@
         <v>0.01</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2819,22 +2850,22 @@
         <v>0.01</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:19">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -2858,21 +2889,21 @@
         <v>0.01</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2897,21 +2928,21 @@
         <v>0.05</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2936,16 +2967,16 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
+++ b/lixiao/performance_templ/assess_绩效+软性考核表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>绩效考核汇总</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>业务类型</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <t>IF</t>
@@ -865,6 +868,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -874,71 +998,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,65 +1013,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1081,13 +1084,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,164 +1256,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1315,6 +1318,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1348,11 +1377,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,21 +1403,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,6 +1424,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1413,176 +1444,174 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,13 +1708,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,9 +1725,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1719,6 +1748,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,8 +1770,8 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 2 2" xfId="1"/>
-    <cellStyle name="常规 14 2 2" xfId="2"/>
+    <cellStyle name="常规 14 2 2" xfId="1"/>
+    <cellStyle name="常规 2 2 2 2" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -2087,10 +2122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2098,45 +2133,48 @@
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
-    <col min="11" max="11" width="11.125"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="9" width="29.375" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
+    <col min="12" max="12" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:11">
+    <row r="1" ht="33" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
-    </row>
-    <row r="3" ht="23.25" spans="1:11">
+      <c r="L1" s="20"/>
+    </row>
+    <row r="3" ht="23.25" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -2152,43 +2190,44 @@
       <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="36" t="s">
         <v>9</v>
       </c>
+      <c r="I5" s="36"/>
       <c r="J5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="L5" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="36" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="48" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="22" t="s">
-        <v>14</v>
-      </c>
+      <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
         <v>15</v>
       </c>
@@ -2201,375 +2240,403 @@
       <c r="Q6" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="R6" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="38" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="23" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="23">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="38"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="23"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="39"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="49"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="38"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="49"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="38"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="38"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="49"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="39"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="49"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="38"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="49"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="49"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="38"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="49"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="38"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="49"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="38"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="38"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="49"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="38"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="39"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="49"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="38"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="39"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="23"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="38"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="23"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
       <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="52" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="4:11">
+      <c r="L28" s="52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12">
       <c r="D29" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="26"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="43"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="52"/>
-    </row>
-    <row r="30" spans="4:11">
+      <c r="I29" s="26"/>
+      <c r="J29" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="4:12">
       <c r="D30" s="26"/>
-      <c r="E30" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="43"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:7">
+      <c r="E36" s="28"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:8">
       <c r="A37" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="29"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:7">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:8">
       <c r="A38" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2577,11 +2644,12 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2606,7 +2674,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2650,7 +2718,7 @@
     </row>
     <row r="3" ht="23.25" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2673,11 +2741,11 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2688,33 +2756,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="28.5" customHeight="1" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2739,16 +2807,16 @@
         <v>0.01</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2776,16 +2844,16 @@
         <v>0.01</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2813,16 +2881,16 @@
         <v>0.01</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2850,22 +2918,22 @@
         <v>0.01</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:19">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -2889,21 +2957,21 @@
         <v>0.01</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2928,21 +2996,21 @@
         <v>0.05</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2967,16 +3035,16 @@
         <v>0.95</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
